--- a/Income&Expenses2024.xlsx
+++ b/Income&Expenses2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13803\Desktop\Santosh Desk\Private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72F394C-1CB6-43C2-A17C-2B48F6FEAE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B0237-8330-4DDE-91A3-1A05CD09085D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB75C171-C3CF-4801-B889-286DC7EFAA81}"/>
   </bookViews>
@@ -196,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +240,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -257,24 +272,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -590,16 +749,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477E5B7-1DEE-4D86-B58F-E8B1A3FD5404}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
@@ -613,19 +775,19 @@
     <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="6"/>
       <c r="J1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5"/>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
@@ -654,11 +816,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="12">
         <v>0</v>
       </c>
       <c r="G3" s="2">
@@ -679,9 +841,9 @@
         <v>12052.660000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="D4" t="s">
         <v>37</v>
       </c>
@@ -710,15 +872,15 @@
         <v>2116.5700000000002</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O21" si="0">K4+L4+M4+N4</f>
+        <f t="shared" ref="O4:O20" si="0">K4+L4+M4+N4</f>
         <v>12700.11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="14"/>
       <c r="D5" t="s">
         <v>38</v>
       </c>
@@ -744,11 +906,11 @@
         <v>264.66000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="15">
         <f>O3</f>
         <v>12052.660000000002</v>
       </c>
@@ -791,11 +953,11 @@
         <v>19861.439999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="15">
         <f t="shared" ref="B7:B23" si="2">O4</f>
         <v>12700.11</v>
       </c>
@@ -836,11 +998,11 @@
         <v>1900.22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="15">
         <f t="shared" si="2"/>
         <v>264.66000000000003</v>
       </c>
@@ -880,11 +1042,11 @@
         <v>877.3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="15">
         <f t="shared" si="2"/>
         <v>19861.439999999999</v>
       </c>
@@ -928,11 +1090,11 @@
         <v>4094.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="15">
         <f t="shared" si="2"/>
         <v>1900.22</v>
       </c>
@@ -962,11 +1124,11 @@
         <v>97.41</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="15">
         <f t="shared" si="2"/>
         <v>877.3</v>
       </c>
@@ -1005,11 +1167,11 @@
         <v>4905.5899999999992</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="15">
         <f t="shared" si="2"/>
         <v>4094.02</v>
       </c>
@@ -1039,11 +1201,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="15">
         <f t="shared" si="2"/>
         <v>97.41</v>
       </c>
@@ -1073,11 +1235,11 @@
         <v>875.3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="15">
         <f t="shared" si="2"/>
         <v>4905.5899999999992</v>
       </c>
@@ -1107,11 +1269,11 @@
         <v>4816.8500000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1150,11 +1312,11 @@
         <v>6799.14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="15">
         <f t="shared" si="2"/>
         <v>875.3</v>
       </c>
@@ -1190,11 +1352,11 @@
         <v>16038.620000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="15">
         <f t="shared" si="2"/>
         <v>4816.8500000000004</v>
       </c>
@@ -1207,11 +1369,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="15">
         <f t="shared" si="2"/>
         <v>6799.14</v>
       </c>
@@ -1224,11 +1386,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="15">
         <f t="shared" si="2"/>
         <v>16038.620000000003</v>
       </c>
@@ -1253,11 +1415,11 @@
         <v>2143.75</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1277,11 +1439,11 @@
         <v>764.29</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1290,7 +1452,7 @@
         <v>12515.890000000001</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" ref="L21:N21" si="3">SUM(L3:L20)</f>
+        <f t="shared" ref="L21:M21" si="3">SUM(L3:L20)</f>
         <v>52235.840000000004</v>
       </c>
       <c r="M21" s="1">
@@ -1306,22 +1468,22 @@
         <v>88191.360000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="15">
         <f t="shared" si="2"/>
         <v>2143.75</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="15">
         <f t="shared" si="2"/>
         <v>764.29</v>
       </c>
@@ -1351,11 +1513,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="15">
         <f>SUM(B6:B23)</f>
         <v>88191.360000000001</v>
       </c>
@@ -1386,8 +1548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
       <c r="J25" t="s">
         <v>39</v>
       </c>
@@ -1412,11 +1575,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="19">
         <f>B3-B24</f>
         <v>-88191.360000000001</v>
       </c>
@@ -1473,7 +1636,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <f>F16-B24</f>
         <v>0</v>
       </c>
@@ -1773,11 +1936,11 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="1.75" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="30" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="K28:K29" formula="1"/>
   </ignoredErrors>
